--- a/biology/Botanique/Arboretum_de_L'Hôpital/Arboretum_de_L'Hôpital.xlsx
+++ b/biology/Botanique/Arboretum_de_L'Hôpital/Arboretum_de_L'Hôpital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_de_L%27H%C3%B4pital</t>
+          <t>Arboretum_de_L'Hôpital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’arboretum de L'Hôpital est un arboretum, qui se situe sur le territoire des communes de L'Hôpital (Moselle) et de Saint-Avold dans la forêt de Zang.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_de_L%27H%C3%B4pital</t>
+          <t>Arboretum_de_L'Hôpital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arboretum a pour origine un club créé en 1967 par Georges Meisse, chef de district des Eaux et Forêts, ainsi que par Fernand Aust, Pierre Froehelig, Jacques Fischer, devenu le 20 mars 1975 l'Association Protectrice des Oiseaux et de la Nature (APON). 
 Situés en contrebas de la forêt de Zang, l'arboretum présente des espèces locales, proche d'un chalet en pierre construit par les bénévoles de l'association et plusieurs fois vandalisé. Une quarantaine d'arbres et de buissons sont identifiés.
